--- a/medicine/Médecine vétérinaire/Parvovirus_canin/Parvovirus_canin.xlsx
+++ b/medicine/Médecine vétérinaire/Parvovirus_canin/Parvovirus_canin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parvovirus canins (CPV pour Canine ParvoViruses) sont des virus très résistants dans le milieu extérieur (plusieurs mois à température ambiante) ; aussi il n'est pas aisé de s'en débarrasser, d'autant que les animaux vaccinés et guéris peuvent en être porteurs sans développer les signes cliniques.
 Virologiquement, ces virus sont apparentés à un autre parvovirus, le parvovirus félin (FPV pour Feline ParvoVirus), agent du typhus félin (panleucopénie féline).
@@ -512,14 +524,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les parvovirus canins sont des virus à ADN simple-brin sans enveloppe. Ils possèdent une symétrie icosaédrale et un génome d'environ 5 000 nucléotides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parvovirus canins sont des virus à ADN simple-brin sans enveloppe. Ils possèdent une symétrie icosaédrale et un génome d'environ 5 000 nucléotides.
 Il en existe 2 types.
-CPV-1
-Également appelé virus minute des chiens (VMC, ou CMV pour Canine minute virus), il est responsable d'avortements, de mortinatalité et de mortalité chez le très jeune chiot (avant 2 mois d'âge généralement).
-CPV-2
-C'est l'agent de la parvovirose canine, une gastro-entérite généralement mortelle, en particulier chez les chiens les plus jeunes ou âgés. Historiquement isolé à la fin des années 1970 à partir des premières épizooties de parvovirose canine dans des élevages américains, il a rapidement évolué sous la forme de 2 variants antigéniques (CPV-2a et CPV-2b) entre 1979 et 1985. Les 3 formes CPV-2, CPV-2a et CPV-2b sont régulièrement isolées sur des chiens non-vaccinés présentant une gastro-entérite. Un troisième type, CPV-2c, a été découvert en Espagne, en Italie et au Viêt Nam[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parvovirus_canin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parvovirus_canin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CPV-1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Également appelé virus minute des chiens (VMC, ou CMV pour Canine minute virus), il est responsable d'avortements, de mortinatalité et de mortalité chez le très jeune chiot (avant 2 mois d'âge généralement).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parvovirus_canin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parvovirus_canin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CPV-2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'agent de la parvovirose canine, une gastro-entérite généralement mortelle, en particulier chez les chiens les plus jeunes ou âgés. Historiquement isolé à la fin des années 1970 à partir des premières épizooties de parvovirose canine dans des élevages américains, il a rapidement évolué sous la forme de 2 variants antigéniques (CPV-2a et CPV-2b) entre 1979 et 1985. Les 3 formes CPV-2, CPV-2a et CPV-2b sont régulièrement isolées sur des chiens non-vaccinés présentant une gastro-entérite. Un troisième type, CPV-2c, a été découvert en Espagne, en Italie et au Viêt Nam.
 </t>
         </is>
       </c>
